--- a/InputExcel/Список пикетчиков.xlsx
+++ b/InputExcel/Список пикетчиков.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>telegram_id</t>
   </si>
@@ -49,6 +49,15 @@
   </si>
   <si>
     <t>Козеева</t>
+  </si>
+  <si>
+    <t>Площадь революции</t>
+  </si>
+  <si>
+    <t>Измайловская</t>
+  </si>
+  <si>
+    <t>Бауманская</t>
   </si>
 </sst>
 </file>
@@ -412,7 +421,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -421,7 +430,7 @@
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" customWidth="1"/>
     <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -452,6 +461,9 @@
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
@@ -463,6 +475,9 @@
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
@@ -473,6 +488,9 @@
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
